--- a/annotations/Annotations_oligodendrocyte_developement.xlsx
+++ b/annotations/Annotations_oligodendrocyte_developement.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Oligodendrocyte development sub" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Oligodendrocyte development sub'!$A$1:$J$114</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Oligodendrocyte development sub'!$A$1:$J$112</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="468">
   <si>
     <t>UniProt</t>
   </si>
@@ -381,6 +381,9 @@
     <t>EGFR signaling cascade</t>
   </si>
   <si>
+    <t>EGFR signaling pathway</t>
+  </si>
+  <si>
     <t>P18146</t>
   </si>
   <si>
@@ -531,76 +534,6 @@
     <t>Negative influence on differentiation (26184894), GPR17 as a negative regulator of CNS myelination: In vitro, GPR17 overexpression not only blocks differentiation of neural progenitor cells into oligodendrocytes but also inhibits terminal differentiation of primary OPCs (19838178).</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>P49840</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve"> and </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>P49841</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>GSK3A</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve"> and </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>GSK3B</t>
-    </r>
-  </si>
-  <si>
-    <t>glycogen synthase kinase 3</t>
-  </si>
-  <si>
-    <t>GSK3</t>
-  </si>
-  <si>
-    <t>31218672</t>
-  </si>
-  <si>
-    <t>human (31218672)</t>
-  </si>
-  <si>
-    <t>Phosphorilates Beta catenin (31218672)</t>
-  </si>
-  <si>
-    <t>GSK3 signaling pathway</t>
-  </si>
-  <si>
     <t>Q9BZM3</t>
   </si>
   <si>
@@ -1481,6 +1414,9 @@
   </si>
   <si>
     <t>WNT/Beta catenin signaling pathway</t>
+  </si>
+  <si>
+    <t>Negative and Positive effect on OPC differentiation into premyelinating oligodendrocytes</t>
   </si>
 </sst>
 </file>
@@ -2414,8 +2350,8 @@
       <c r="I19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J19" s="3" t="s">
-        <v>83</v>
+      <c r="J19" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="K19" s="5"/>
     </row>
@@ -2713,371 +2649,371 @@
       <c r="K28" s="10"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="3" t="s">
+      <c r="H29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K29" s="6"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="B30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H29" s="2" t="s">
+      <c r="F30" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="G30" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H30" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="I30" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="K29" s="6"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="3" t="s">
+      <c r="J30" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="3" t="s">
+      <c r="K30" s="5"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="D31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="G31" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="H31" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="I31" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="K30" s="5"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="2" t="s">
+      <c r="J31" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="2" t="s">
+      <c r="K31" s="5"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="B32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H31" s="3" t="s">
+      <c r="F32" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="G32" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H32" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="J31" s="4" t="s">
+      <c r="I32" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="K31" s="5"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="1" t="s">
+      <c r="J32" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>145</v>
       </c>
       <c r="K32" s="5"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="J33" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>145</v>
       </c>
       <c r="K33" s="5"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I34" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="3" t="s">
+      <c r="J34" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="K34" s="5"/>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="C35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="G35" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="H35" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="I35" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J34" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="K34" s="5"/>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="3" t="s">
+      <c r="J35" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="3" t="s">
+      <c r="K35" s="5"/>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="B36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="H35" s="2" t="s">
+      <c r="F36" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="I36" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J35" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="K35" s="5"/>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="1" t="s">
+      <c r="J36" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>162</v>
       </c>
       <c r="K36" s="5"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="J37" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>162</v>
       </c>
       <c r="K37" s="5"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="G38" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>169</v>
+        <v>132</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="K38" s="5"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="J39" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="K39" s="6"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>11</v>
+        <v>173</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>11</v>
@@ -3088,161 +3024,161 @@
       <c r="D40" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>11</v>
+      <c r="E40" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>49</v>
+        <v>178</v>
       </c>
       <c r="K40" s="5"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" s="2" t="s">
+      <c r="F41" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="G41" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H41" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="H41" s="2" t="s">
+      <c r="I41" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="I41" s="2" t="s">
+      <c r="J41" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="K41" s="6"/>
+      <c r="K41" s="5"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" s="2" t="s">
+      <c r="F42" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>188</v>
-      </c>
       <c r="G42" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="K42" s="5"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="I43" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" s="2" t="s">
+      <c r="J43" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>191</v>
       </c>
       <c r="K43" s="5"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E44" s="2" t="s">
+      <c r="F44" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="G44" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="H44" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="G44" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="H44" s="2" t="s">
+      <c r="I44" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="I44" s="3" t="s">
+      <c r="J44" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>200</v>
       </c>
       <c r="K44" s="5"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>201</v>
+        <v>11</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>11</v>
@@ -3253,23 +3189,23 @@
       <c r="D45" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>203</v>
+      <c r="E45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>206</v>
+        <v>183</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="K45" s="5"/>
     </row>
@@ -3281,7 +3217,7 @@
         <v>11</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>11</v>
+        <v>201</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>11</v>
@@ -3293,647 +3229,647 @@
         <v>11</v>
       </c>
       <c r="G46" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="K46" s="7"/>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="H47" s="3">
+        <v>3.2391572E7</v>
+      </c>
+      <c r="I47" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="H46" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K46" s="5"/>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" s="1" t="s">
+      <c r="J47" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="K47" s="5"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F48" s="8" t="s">
         <v>211</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>213</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>212</v>
       </c>
       <c r="H48" s="3">
-        <v>3.2391572E7</v>
+        <v>1.185768E7</v>
       </c>
       <c r="I48" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="J48" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="K48" s="7"/>
+      <c r="K48" s="5"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="G49" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>219</v>
       </c>
       <c r="H49" s="3">
         <v>1.185768E7</v>
       </c>
       <c r="I49" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="K49" s="5"/>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H50" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="J49" s="3" t="s">
+      <c r="I50" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="K49" s="5"/>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="3" t="s">
+      <c r="J50" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="H50" s="3">
-        <v>1.185768E7</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>221</v>
       </c>
       <c r="K50" s="5"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" s="2" t="s">
+      <c r="F51" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="G51" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H51" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="G51" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="H51" s="2" t="s">
+      <c r="I51" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="I51" s="2" t="s">
+      <c r="J51" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="J51" s="3" t="s">
+      <c r="K51" s="5"/>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="K51" s="5"/>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="1" t="s">
+      <c r="B52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" s="2" t="s">
+      <c r="F52" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="G52" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J52" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="G52" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="H52" s="2" t="s">
+      <c r="K52" s="5"/>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="I52" s="2" t="s">
+      <c r="B53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="J52" s="3" t="s">
+      <c r="F53" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="K52" s="5"/>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="3" t="s">
+      <c r="G53" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J53" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" s="2" t="s">
+      <c r="K53" s="5"/>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="B54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="G53" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J53" s="3" t="s">
+      <c r="F54" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="K53" s="5"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="1" t="s">
+      <c r="G54" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J54" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54" s="2" t="s">
+      <c r="K54" s="5"/>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="B55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="G54" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="I54" s="2" t="s">
+      <c r="F55" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="K55" s="5"/>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="H56" s="3">
+        <v>3.0500113E7</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="K56" s="5"/>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="H57" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="K54" s="5"/>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="K55" s="5"/>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="J56" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="K56" s="5"/>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E57" s="4" t="s">
+      <c r="I57" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K57" s="5"/>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="B58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="G57" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="H57" s="3">
-        <v>3.0500113E7</v>
-      </c>
-      <c r="I57" s="4" t="s">
+      <c r="F58" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="J57" s="3" t="s">
+      <c r="G58" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="H58" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="K57" s="5"/>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="3" t="s">
+      <c r="I58" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E58" s="3" t="s">
+      <c r="J58" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="K58" s="5"/>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="K58" s="5"/>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="1" t="s">
+      <c r="B59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59" s="2" t="s">
+      <c r="F59" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="G59" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="H59" s="4">
+        <v>1.8593473E7</v>
+      </c>
+      <c r="I59" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="G59" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="H59" s="2" t="s">
+      <c r="J59" s="3"/>
+      <c r="K59" s="5"/>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="I59" s="3" t="s">
+      <c r="B60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="J59" s="3" t="s">
+      <c r="F60" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="K59" s="5"/>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="4" t="s">
+      <c r="G60" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="H60" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E60" s="4" t="s">
+      <c r="I60" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="F60" s="4" t="s">
+      <c r="J60" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="G60" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="H60" s="4">
-        <v>1.8593473E7</v>
-      </c>
-      <c r="I60" s="4" t="s">
+      <c r="K60" s="5"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="J60" s="3"/>
-      <c r="K60" s="5"/>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="1" t="s">
+      <c r="B61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E61" s="2" t="s">
+      <c r="F61" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="G61" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="H61" s="3">
+        <v>1.7910053E7</v>
+      </c>
+      <c r="I61" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="G61" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="H61" s="11" t="s">
+      <c r="J61" s="3" t="s">
         <v>273</v>
-      </c>
-      <c r="I61" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="J61" s="4" t="s">
-        <v>275</v>
       </c>
       <c r="K61" s="5"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="F62" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>278</v>
-      </c>
       <c r="G62" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H62" s="3">
         <v>1.7910053E7</v>
       </c>
       <c r="I62" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="K62" s="7"/>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="F63" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="J62" s="3" t="s">
+      <c r="G63" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="H63" s="3">
+        <v>2.4994843E7</v>
+      </c>
+      <c r="I63" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="K62" s="5"/>
-    </row>
-    <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="4" t="s">
+      <c r="J63" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="H63" s="3">
-        <v>1.7910053E7</v>
-      </c>
-      <c r="I63" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="J63" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="K63" s="5"/>
+      <c r="K63" s="10"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H64" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E64" s="3" t="s">
+      <c r="I64" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="F64" s="8" t="s">
+      <c r="J64" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="G64" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="H64" s="3">
-        <v>2.4994843E7</v>
-      </c>
-      <c r="I64" s="4" t="s">
+      <c r="K64" s="5"/>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="J64" s="3" t="s">
+      <c r="B65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="K64" s="7"/>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="3" t="s">
+      <c r="F65" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F65" s="11" t="s">
+      <c r="G65" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="H65" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="G65" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="H65" s="11" t="s">
+      <c r="I65" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="I65" s="11" t="s">
+      <c r="J65" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="J65" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="K65" s="10"/>
+      <c r="K65" s="5"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>294</v>
+        <v>11</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>11</v>
@@ -3944,23 +3880,23 @@
       <c r="D66" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="F66" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="I66" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="J66" s="4" t="s">
-        <v>299</v>
+      <c r="E66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="K66" s="5"/>
     </row>
@@ -3975,7 +3911,7 @@
         <v>11</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>11</v>
+        <v>294</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>11</v>
@@ -3983,8 +3919,8 @@
       <c r="F67" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G67" s="3" t="s">
-        <v>300</v>
+      <c r="G67" s="2" t="s">
+        <v>295</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>11</v>
@@ -3992,8 +3928,8 @@
       <c r="I67" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J67" s="3" t="s">
-        <v>49</v>
+      <c r="J67" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="K67" s="5"/>
     </row>
@@ -4005,10 +3941,10 @@
         <v>11</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>11</v>
+        <v>296</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>301</v>
+        <v>11</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>11</v>
@@ -4017,7 +3953,7 @@
         <v>11</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>11</v>
@@ -4032,67 +3968,67 @@
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>11</v>
+        <v>298</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C69" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="J69" s="3" t="s">
         <v>303</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="K69" s="5"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>308</v>
+      <c r="H70" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="J70" s="3" t="s">
-        <v>310</v>
+        <v>11</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="K70" s="5"/>
     </row>
@@ -4100,100 +4036,100 @@
       <c r="A71" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>11</v>
+      <c r="B71" s="3" t="s">
+        <v>306</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K71" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="K71" s="6"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B72" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H72" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E72" s="3" t="s">
+      <c r="I72" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="F72" s="3" t="s">
+      <c r="J72" s="3" t="s">
         <v>315</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>316</v>
       </c>
       <c r="K72" s="5"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G73" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E73" s="2" t="s">
+      <c r="H73" s="2">
+        <v>2.2394407E7</v>
+      </c>
+      <c r="I73" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="F73" s="2" t="s">
+      <c r="J73" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="G73" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="J73" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="K73" s="6"/>
+      <c r="K73" s="5"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="1" t="s">
@@ -4203,7 +4139,7 @@
         <v>11</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>323</v>
+        <v>11</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>11</v>
@@ -4215,22 +4151,22 @@
         <v>11</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="H74" s="2">
-        <v>2.2394407E7</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="J74" s="2" t="s">
-        <v>326</v>
+        <v>317</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="K74" s="5"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>11</v>
+        <v>320</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>11</v>
@@ -4242,156 +4178,156 @@
         <v>11</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>11</v>
+        <v>321</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="G75" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="I75" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="H75" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="J75" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="K75" s="5"/>
+        <v>325</v>
+      </c>
+      <c r="K75" s="7"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E76" s="1" t="s">
+      <c r="F76" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="G76" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="H76" s="3">
+        <v>2.8751716E7</v>
+      </c>
+      <c r="I76" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="G76" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="H76" s="2" t="s">
+      <c r="J76" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="I76" s="3" t="s">
+      <c r="K76" s="10"/>
+    </row>
+    <row r="77" ht="15.75" customHeight="1">
+      <c r="A77" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="J76" s="3" t="s">
+      <c r="B77" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="K76" s="5"/>
-    </row>
-    <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="3" t="s">
+      <c r="F77" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E77" s="3" t="s">
+      <c r="G77" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="H77" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="F77" s="8" t="s">
+      <c r="I77" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="J77" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="G77" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="H77" s="3">
-        <v>2.8751716E7</v>
-      </c>
-      <c r="I77" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="J77" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="K77" s="7"/>
+      <c r="K77" s="6"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="F78" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E78" s="2" t="s">
+      <c r="G78" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="H78" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="F78" s="2" t="s">
+      <c r="I78" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="G78" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="H78" s="2" t="s">
+      <c r="J78" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="I78" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="J78" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="K78" s="10"/>
+      <c r="K78" s="5"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="J79" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="K79" s="6"/>
+      <c r="H79" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K79" s="5"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="1" t="s">
@@ -4401,133 +4337,133 @@
         <v>11</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>11</v>
+        <v>344</v>
       </c>
       <c r="D80" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H80" s="2">
+        <v>2.4982138E7</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K80" s="2"/>
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="A81" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="F81" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="E80" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G80" s="2" t="s">
+      <c r="G81" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="H81" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="H80" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K80" s="5"/>
-    </row>
-    <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C81" s="1" t="s">
+      <c r="I81" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="D81" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G81" s="2" t="s">
+      <c r="J81" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="H81" s="2">
-        <v>2.4982138E7</v>
-      </c>
-      <c r="I81" s="1" t="s">
+      <c r="K81" s="5"/>
+    </row>
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="A82" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="J81" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K81" s="5"/>
-    </row>
-    <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="4" t="s">
+      <c r="D82" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G82" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="B82" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D82" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="F82" s="11" t="s">
-        <v>356</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="H82" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="I82" s="4" t="s">
-        <v>358</v>
+      <c r="H82" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="K82" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="K82" s="5"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>11</v>
+        <v>355</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C83" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="H83" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="J83" s="3" t="s">
         <v>360</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="K83" s="5"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>11</v>
+        <v>361</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>11</v>
@@ -4538,29 +4474,29 @@
       <c r="D84" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="H84" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>11</v>
+      <c r="E84" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="H84" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>365</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>83</v>
+        <v>360</v>
       </c>
       <c r="K84" s="5"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="1" t="s">
-        <v>362</v>
+        <v>11</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>11</v>
@@ -4571,89 +4507,89 @@
       <c r="D85" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E85" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="H85" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="I85" s="4" t="s">
+      <c r="E85" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G85" s="3" t="s">
         <v>366</v>
       </c>
+      <c r="H85" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="J85" s="3" t="s">
-        <v>367</v>
+        <v>83</v>
       </c>
       <c r="K85" s="5"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K86" s="5"/>
+    </row>
+    <row r="87" ht="15.75" customHeight="1">
+      <c r="A87" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B87" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E86" s="2" t="s">
+      <c r="C87" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="F86" s="2" t="s">
+      <c r="G87" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="G86" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="H86" s="11" t="s">
+      <c r="H87" s="3">
+        <v>2.6319495E7</v>
+      </c>
+      <c r="I87" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="I86" s="4" t="s">
+      <c r="J87" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="J86" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="K86" s="5"/>
-    </row>
-    <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J87" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="K87" s="5"/>
     </row>
@@ -4677,45 +4613,45 @@
         <v>11</v>
       </c>
       <c r="G88" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K88" s="5"/>
+    </row>
+    <row r="89" ht="15.75" customHeight="1">
+      <c r="A89" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="H88" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I88" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J88" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="K88" s="5"/>
-    </row>
-    <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B89" s="13" t="s">
+      <c r="B89" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>375</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D89" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E89" s="8" t="s">
-        <v>11</v>
       </c>
       <c r="F89" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="G89" s="8" t="s">
+      <c r="G89" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="H89" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="H89" s="3">
-        <v>2.6319495E7</v>
-      </c>
-      <c r="I89" s="4" t="s">
+      <c r="I89" s="11" t="s">
         <v>378</v>
       </c>
       <c r="J89" s="4" t="s">
@@ -4742,7 +4678,7 @@
       <c r="F90" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G90" s="3" t="s">
+      <c r="G90" s="2" t="s">
         <v>380</v>
       </c>
       <c r="H90" s="1" t="s">
@@ -4751,113 +4687,113 @@
       <c r="I90" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J90" s="3" t="s">
-        <v>49</v>
+      <c r="J90" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="K90" s="5"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D91" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E91" s="2" t="s">
+      <c r="E91" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G91" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="F91" s="8" t="s">
+      <c r="H91" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K91" s="5"/>
+    </row>
+    <row r="92" ht="15.75" customHeight="1">
+      <c r="A92" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="G91" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="H91" s="11" t="s">
+      <c r="B92" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="I91" s="11" t="s">
+      <c r="F92" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="J91" s="4" t="s">
+      <c r="G92" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="H92" s="2">
+        <v>2.4379757E7</v>
+      </c>
+      <c r="I92" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="K91" s="5"/>
-    </row>
-    <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G92" s="2" t="s">
+      <c r="J92" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="H92" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="K92" s="5"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C93" s="3" t="s">
+      <c r="A93" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="D93" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G93" s="3" t="s">
+      <c r="B93" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="H93" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J93" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K93" s="5"/>
+      <c r="F93" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="H93" s="3">
+        <v>3.007513E7</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J93" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="K93" s="7"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="3" t="s">
-        <v>390</v>
+      <c r="A94" s="1" t="s">
+        <v>392</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>11</v>
@@ -4868,62 +4804,62 @@
       <c r="D94" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="H94" s="2">
-        <v>2.4379757E7</v>
-      </c>
-      <c r="I94" s="3" t="s">
+      <c r="E94" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="J94" s="3" t="s">
+      <c r="F94" s="2" t="s">
         <v>394</v>
       </c>
+      <c r="G94" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>396</v>
+      </c>
       <c r="K94" s="5"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="B95" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D95" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="F95" s="4" t="s">
+      <c r="A95" s="3" t="s">
         <v>397</v>
       </c>
+      <c r="B95" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>399</v>
+      </c>
       <c r="G95" s="4" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="H95" s="3">
-        <v>3.007513E7</v>
+        <v>1.8772343E7</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="J95" s="4" t="s">
-        <v>398</v>
+        <v>400</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>401</v>
       </c>
       <c r="K95" s="7"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="1" t="s">
-        <v>399</v>
+        <v>11</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>11</v>
@@ -4934,62 +4870,62 @@
       <c r="D96" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E96" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="H96" s="2" t="s">
+      <c r="E96" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G96" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="I96" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="J96" s="2" t="s">
+      <c r="H96" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K96" s="5"/>
+    </row>
+    <row r="97" ht="15.75" customHeight="1">
+      <c r="A97" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="K96" s="5"/>
-    </row>
-    <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="3" t="s">
+      <c r="B97" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E97" s="3" t="s">
+      <c r="F97" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="F97" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="G97" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="H97" s="3">
-        <v>1.8772343E7</v>
-      </c>
-      <c r="I97" s="4" t="s">
-        <v>407</v>
+      <c r="G97" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="K97" s="7"/>
+        <v>236</v>
+      </c>
+      <c r="K97" s="5"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="1" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>11</v>
@@ -5000,62 +4936,62 @@
       <c r="D98" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E98" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G98" s="3" t="s">
+      <c r="E98" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="H98" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="H98" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>11</v>
+      <c r="I98" s="3" t="s">
+        <v>410</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>49</v>
+        <v>411</v>
       </c>
       <c r="K98" s="5"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="1" t="s">
-        <v>410</v>
+        <v>11</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>11</v>
+      <c r="C99" s="2" t="s">
+        <v>412</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E99" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>412</v>
+      <c r="E99" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="I99" s="2" t="s">
-        <v>126</v>
+        <v>414</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>415</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>243</v>
+        <v>416</v>
       </c>
       <c r="K99" s="5"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="1" t="s">
-        <v>413</v>
+        <v>11</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>11</v>
@@ -5066,63 +5002,63 @@
       <c r="D100" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E100" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>415</v>
+      <c r="E100" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="J100" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="J100" s="2" t="s">
         <v>418</v>
       </c>
       <c r="K100" s="5"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C101" s="2" t="s">
+      <c r="A101" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="D101" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G101" s="2" t="s">
+      <c r="B101" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E101" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="H101" s="2" t="s">
+      <c r="F101" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="I101" s="3" t="s">
+      <c r="G101" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="H101" s="3">
+        <v>2.9111262E7</v>
+      </c>
+      <c r="I101" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J101" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="J101" s="3" t="s">
+      <c r="K101" s="5"/>
+    </row>
+    <row r="102" ht="15.75" customHeight="1">
+      <c r="A102" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="K101" s="5"/>
-    </row>
-    <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="B102" s="1" t="s">
         <v>11</v>
       </c>
@@ -5132,95 +5068,95 @@
       <c r="D102" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E102" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G102" s="2" t="s">
+      <c r="E102" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="H102" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="I102" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="J102" s="2" t="s">
+      <c r="F102" s="3" t="s">
         <v>425</v>
       </c>
+      <c r="G102" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="H102" s="2">
+        <v>2.4379757E7</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>387</v>
+      </c>
       <c r="K102" s="5"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="4" t="s">
+      <c r="A103" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="B103" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C103" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D103" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E103" s="4" t="s">
+      <c r="B103" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="F103" s="8" t="s">
+      <c r="F103" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="G103" s="4" t="s">
+      <c r="G103" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="H103" s="3">
-        <v>2.9111262E7</v>
-      </c>
-      <c r="I103" s="4" t="s">
-        <v>106</v>
+      <c r="H103" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="J103" s="3" t="s">
         <v>429</v>
       </c>
       <c r="K103" s="5"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="3" t="s">
+    <row r="104" ht="15.0" customHeight="1">
+      <c r="A104" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E104" s="3" t="s">
+      <c r="B104" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E104" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="F104" s="3" t="s">
+      <c r="F104" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="G104" s="3" t="s">
+      <c r="G104" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="H104" s="2">
-        <v>2.4379757E7</v>
-      </c>
-      <c r="I104" s="3" t="s">
-        <v>393</v>
+      <c r="H104" s="3">
+        <v>1.0880231E7</v>
+      </c>
+      <c r="I104" s="4" t="s">
+        <v>433</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>394</v>
+        <v>434</v>
       </c>
       <c r="K104" s="5"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105">
       <c r="A105" s="1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>11</v>
@@ -5232,127 +5168,127 @@
         <v>11</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="G105" s="3" t="s">
-        <v>434</v>
+        <v>437</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>436</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="K105" s="5"/>
+        <v>438</v>
+      </c>
+      <c r="K105" s="6"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="B106" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C106" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D106" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E106" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="F106" s="4" t="s">
+      <c r="A106" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="G106" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="H106" s="3">
-        <v>1.0880231E7</v>
-      </c>
-      <c r="I106" s="4" t="s">
+      <c r="C106" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F106" s="2" t="s">
         <v>440</v>
       </c>
+      <c r="G106" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>443</v>
+      </c>
       <c r="J106" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="K106" s="5"/>
+        <v>444</v>
+      </c>
+      <c r="K106" s="7"/>
     </row>
     <row r="107" ht="15.0" customHeight="1">
-      <c r="A107" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I107" s="2" t="s">
-        <v>20</v>
+      <c r="A107" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="H107" s="3">
+        <v>3.3597727E7</v>
+      </c>
+      <c r="I107" s="4" t="s">
+        <v>448</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="K107" s="5"/>
     </row>
-    <row r="108">
-      <c r="A108" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="H108" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="I108" s="3" t="s">
+    <row r="108" ht="15.75" customHeight="1">
+      <c r="A108" s="4" t="s">
         <v>450</v>
       </c>
+      <c r="B108" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="I108" s="4" t="s">
+        <v>453</v>
+      </c>
       <c r="J108" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="K108" s="6"/>
+        <v>454</v>
+      </c>
+      <c r="K108" s="5"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="3" t="s">
-        <v>452</v>
+      <c r="A109" s="4" t="s">
+        <v>455</v>
       </c>
       <c r="B109" s="8" t="s">
         <v>11</v>
@@ -5363,91 +5299,91 @@
       <c r="D109" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E109" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="G109" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="H109" s="3">
-        <v>3.3597727E7</v>
+      <c r="E109" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="H109" s="4">
+        <v>1.8593473E7</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="J109" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="K109" s="7"/>
-    </row>
-    <row r="110" ht="15.0" customHeight="1">
-      <c r="A110" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="B110" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C110" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D110" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E110" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="J109" s="3"/>
+      <c r="K109" s="5"/>
+    </row>
+    <row r="110" ht="15.75" customHeight="1">
+      <c r="A110" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="F110" s="4" t="s">
+      <c r="F110" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="G110" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="H110" s="3" t="s">
+      <c r="G110" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="I110" s="4" t="s">
+      <c r="H110" s="2" t="s">
         <v>460</v>
       </c>
+      <c r="I110" s="3" t="s">
+        <v>461</v>
+      </c>
       <c r="J110" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="K110" s="5"/>
+    </row>
+    <row r="111" ht="15.75" customHeight="1">
+      <c r="A111" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="I111" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="K110" s="5"/>
-    </row>
-    <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="4" t="s">
+      <c r="J111" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="B111" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C111" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D111" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E111" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="F111" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="G111" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="H111" s="4">
-        <v>1.8593473E7</v>
-      </c>
-      <c r="I111" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="J111" s="3"/>
       <c r="K111" s="5"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112">
       <c r="A112" s="1" t="s">
         <v>11</v>
       </c>
@@ -5460,91 +5396,51 @@
       <c r="D112" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E112" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>465</v>
+      <c r="E112" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="H112" s="2" t="s">
+      <c r="H112" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J112" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="I112" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="J112" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="K112" s="5"/>
-    </row>
-    <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="H113" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="I113" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="J113" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="K113" s="5"/>
-    </row>
-    <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="H114" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I114" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J114" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K114" s="5"/>
+      <c r="K112" s="7"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="8"/>
+      <c r="B113" s="8"/>
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c r="H113" s="8"/>
+      <c r="I113" s="8"/>
+      <c r="J113" s="8"/>
+      <c r="K113" s="7"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="8"/>
+      <c r="B114" s="8"/>
+      <c r="C114" s="8"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c r="H114" s="8"/>
+      <c r="I114" s="8"/>
+      <c r="J114" s="8"/>
+      <c r="K114" s="7"/>
     </row>
     <row r="115">
       <c r="A115" s="8"/>
@@ -5572,18 +5468,18 @@
       <c r="J116" s="8"/>
       <c r="K116" s="7"/>
     </row>
-    <row r="117">
+    <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
-      <c r="F117" s="8"/>
-      <c r="G117" s="8"/>
-      <c r="H117" s="8"/>
+      <c r="F117" s="4"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="3"/>
       <c r="I117" s="8"/>
-      <c r="J117" s="8"/>
-      <c r="K117" s="7"/>
+      <c r="J117" s="3"/>
+      <c r="K117" s="5"/>
     </row>
     <row r="118">
       <c r="A118" s="8"/>
@@ -5611,18 +5507,18 @@
       <c r="J119" s="8"/>
       <c r="K119" s="7"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120">
       <c r="A120" s="8"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
-      <c r="F120" s="4"/>
-      <c r="G120" s="3"/>
-      <c r="H120" s="3"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c r="H120" s="8"/>
       <c r="I120" s="8"/>
-      <c r="J120" s="3"/>
-      <c r="K120" s="5"/>
+      <c r="J120" s="8"/>
+      <c r="K120" s="7"/>
     </row>
     <row r="121">
       <c r="A121" s="8"/>
@@ -5689,44 +5585,44 @@
       <c r="J125" s="8"/>
       <c r="K125" s="7"/>
     </row>
-    <row r="126">
-      <c r="A126" s="8"/>
-      <c r="B126" s="8"/>
-      <c r="C126" s="8"/>
-      <c r="D126" s="8"/>
-      <c r="E126" s="8"/>
-      <c r="F126" s="8"/>
-      <c r="G126" s="8"/>
-      <c r="H126" s="8"/>
-      <c r="I126" s="8"/>
-      <c r="J126" s="8"/>
-      <c r="K126" s="7"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="8"/>
-      <c r="B127" s="8"/>
-      <c r="C127" s="8"/>
-      <c r="D127" s="8"/>
-      <c r="E127" s="8"/>
-      <c r="F127" s="8"/>
-      <c r="G127" s="8"/>
-      <c r="H127" s="8"/>
-      <c r="I127" s="8"/>
-      <c r="J127" s="8"/>
-      <c r="K127" s="7"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="8"/>
-      <c r="B128" s="8"/>
-      <c r="C128" s="8"/>
-      <c r="D128" s="8"/>
-      <c r="E128" s="8"/>
-      <c r="F128" s="8"/>
-      <c r="G128" s="8"/>
-      <c r="H128" s="8"/>
-      <c r="I128" s="8"/>
-      <c r="J128" s="8"/>
-      <c r="K128" s="7"/>
+    <row r="126" ht="15.75" customHeight="1">
+      <c r="A126" s="3"/>
+      <c r="B126" s="3"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="3"/>
+      <c r="E126" s="3"/>
+      <c r="F126" s="3"/>
+      <c r="G126" s="3"/>
+      <c r="H126" s="3"/>
+      <c r="I126" s="3"/>
+      <c r="J126" s="3"/>
+      <c r="K126" s="5"/>
+    </row>
+    <row r="127" ht="15.75" customHeight="1">
+      <c r="A127" s="3"/>
+      <c r="B127" s="3"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3"/>
+      <c r="F127" s="3"/>
+      <c r="G127" s="3"/>
+      <c r="H127" s="3"/>
+      <c r="I127" s="3"/>
+      <c r="J127" s="3"/>
+      <c r="K127" s="5"/>
+    </row>
+    <row r="128" ht="15.75" customHeight="1">
+      <c r="A128" s="3"/>
+      <c r="B128" s="3"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="3"/>
+      <c r="E128" s="3"/>
+      <c r="F128" s="3"/>
+      <c r="G128" s="3"/>
+      <c r="H128" s="3"/>
+      <c r="I128" s="3"/>
+      <c r="J128" s="3"/>
+      <c r="K128" s="5"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="3"/>
@@ -8212,43 +8108,43 @@
       <c r="K319" s="5"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="A320" s="3"/>
-      <c r="B320" s="3"/>
-      <c r="C320" s="3"/>
-      <c r="D320" s="3"/>
-      <c r="E320" s="3"/>
-      <c r="F320" s="3"/>
-      <c r="G320" s="3"/>
-      <c r="H320" s="3"/>
+      <c r="A320" s="8"/>
+      <c r="B320" s="8"/>
+      <c r="C320" s="8"/>
+      <c r="D320" s="8"/>
+      <c r="E320" s="8"/>
+      <c r="F320" s="8"/>
+      <c r="G320" s="8"/>
+      <c r="H320" s="8"/>
       <c r="I320" s="3"/>
-      <c r="J320" s="3"/>
-      <c r="K320" s="5"/>
+      <c r="J320" s="8"/>
+      <c r="K320" s="7"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="A321" s="3"/>
-      <c r="B321" s="3"/>
-      <c r="C321" s="3"/>
-      <c r="D321" s="3"/>
-      <c r="E321" s="3"/>
-      <c r="F321" s="3"/>
-      <c r="G321" s="3"/>
-      <c r="H321" s="3"/>
+      <c r="A321" s="8"/>
+      <c r="B321" s="8"/>
+      <c r="C321" s="8"/>
+      <c r="D321" s="8"/>
+      <c r="E321" s="8"/>
+      <c r="F321" s="8"/>
+      <c r="G321" s="8"/>
+      <c r="H321" s="8"/>
       <c r="I321" s="3"/>
-      <c r="J321" s="3"/>
-      <c r="K321" s="5"/>
+      <c r="J321" s="8"/>
+      <c r="K321" s="7"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="A322" s="3"/>
-      <c r="B322" s="3"/>
-      <c r="C322" s="3"/>
-      <c r="D322" s="3"/>
-      <c r="E322" s="3"/>
-      <c r="F322" s="3"/>
-      <c r="G322" s="3"/>
-      <c r="H322" s="3"/>
+      <c r="A322" s="8"/>
+      <c r="B322" s="8"/>
+      <c r="C322" s="8"/>
+      <c r="D322" s="8"/>
+      <c r="E322" s="8"/>
+      <c r="F322" s="8"/>
+      <c r="G322" s="8"/>
+      <c r="H322" s="8"/>
       <c r="I322" s="3"/>
-      <c r="J322" s="3"/>
-      <c r="K322" s="5"/>
+      <c r="J322" s="8"/>
+      <c r="K322" s="7"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
       <c r="A323" s="8"/>
@@ -16401,47 +16297,13 @@
       <c r="J949" s="8"/>
       <c r="K949" s="7"/>
     </row>
-    <row r="950" ht="15.75" customHeight="1">
-      <c r="A950" s="8"/>
-      <c r="B950" s="8"/>
-      <c r="C950" s="8"/>
-      <c r="D950" s="8"/>
-      <c r="E950" s="8"/>
-      <c r="F950" s="8"/>
-      <c r="G950" s="8"/>
-      <c r="H950" s="8"/>
-      <c r="I950" s="3"/>
-      <c r="J950" s="8"/>
-      <c r="K950" s="7"/>
-    </row>
-    <row r="951" ht="15.75" customHeight="1">
-      <c r="A951" s="8"/>
-      <c r="B951" s="8"/>
-      <c r="C951" s="8"/>
-      <c r="D951" s="8"/>
-      <c r="E951" s="8"/>
-      <c r="F951" s="8"/>
-      <c r="G951" s="8"/>
-      <c r="H951" s="8"/>
-      <c r="I951" s="3"/>
-      <c r="J951" s="8"/>
-      <c r="K951" s="7"/>
-    </row>
-    <row r="952" ht="15.75" customHeight="1">
-      <c r="A952" s="8"/>
-      <c r="B952" s="8"/>
-      <c r="C952" s="8"/>
-      <c r="D952" s="8"/>
-      <c r="E952" s="8"/>
-      <c r="F952" s="8"/>
-      <c r="G952" s="8"/>
-      <c r="H952" s="8"/>
-      <c r="I952" s="3"/>
-      <c r="J952" s="8"/>
-      <c r="K952" s="7"/>
-    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$J$114"/>
+  <autoFilter ref="$A$1:$J$112">
+    <sortState ref="A1:J112">
+      <sortCondition ref="G1:G112"/>
+      <sortCondition ref="H1:H112"/>
+    </sortState>
+  </autoFilter>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="A2"/>
     <hyperlink r:id="rId2" ref="A3"/>
@@ -16480,137 +16342,135 @@
     <hyperlink r:id="rId35" ref="A27"/>
     <hyperlink r:id="rId36" location="!/hgnc_id/HGNC:3236" ref="E27"/>
     <hyperlink r:id="rId37" ref="C28"/>
-    <hyperlink r:id="rId38" ref="A29"/>
-    <hyperlink r:id="rId39" location="!/hgnc_id/HGNC:3238" ref="E29"/>
-    <hyperlink r:id="rId40" ref="C30"/>
-    <hyperlink r:id="rId41" ref="A31"/>
-    <hyperlink r:id="rId42" location="!/hgnc_id/HGNC:3676" ref="C31"/>
-    <hyperlink r:id="rId43" location="!/hgnc_id/HGNC:3676" ref="D31"/>
-    <hyperlink r:id="rId44" location="!/hgnc_id/HGNC:3676" ref="E31"/>
-    <hyperlink r:id="rId45" ref="A32"/>
-    <hyperlink r:id="rId46" location="!/hgnc_id/HGNC:3688" ref="E32"/>
-    <hyperlink r:id="rId47" ref="A33"/>
-    <hyperlink r:id="rId48" location="!/hgnc_id/HGNC:3689" ref="E33"/>
-    <hyperlink r:id="rId49" ref="B34"/>
-    <hyperlink r:id="rId50" ref="A35"/>
-    <hyperlink r:id="rId51" location="!/hgnc_id/HGNC:4115" ref="E35"/>
-    <hyperlink r:id="rId52" ref="A36"/>
-    <hyperlink r:id="rId53" location="!/hgnc_id/HGNC:4318" ref="E36"/>
-    <hyperlink r:id="rId54" ref="A37"/>
-    <hyperlink r:id="rId55" location="!/hgnc_id/HGNC:4319" ref="E37"/>
-    <hyperlink r:id="rId56" ref="A38"/>
-    <hyperlink r:id="rId57" location="!/hgnc_id/HGNC:4471" ref="E38"/>
-    <hyperlink r:id="rId58" ref="A39"/>
-    <hyperlink r:id="rId59" location="!/hgnc_id/HGNC:4616" ref="E39"/>
+    <hyperlink r:id="rId38" ref="A30"/>
+    <hyperlink r:id="rId39" location="!/hgnc_id/HGNC:3238" ref="E30"/>
+    <hyperlink r:id="rId40" ref="C31"/>
+    <hyperlink r:id="rId41" ref="A32"/>
+    <hyperlink r:id="rId42" location="!/hgnc_id/HGNC:3676" ref="C32"/>
+    <hyperlink r:id="rId43" location="!/hgnc_id/HGNC:3676" ref="D32"/>
+    <hyperlink r:id="rId44" location="!/hgnc_id/HGNC:3676" ref="E32"/>
+    <hyperlink r:id="rId45" ref="A33"/>
+    <hyperlink r:id="rId46" location="!/hgnc_id/HGNC:3688" ref="E33"/>
+    <hyperlink r:id="rId47" ref="A34"/>
+    <hyperlink r:id="rId48" location="!/hgnc_id/HGNC:3689" ref="E34"/>
+    <hyperlink r:id="rId49" ref="B35"/>
+    <hyperlink r:id="rId50" ref="A36"/>
+    <hyperlink r:id="rId51" location="!/hgnc_id/HGNC:4115" ref="E36"/>
+    <hyperlink r:id="rId52" ref="A37"/>
+    <hyperlink r:id="rId53" location="!/hgnc_id/HGNC:4318" ref="E37"/>
+    <hyperlink r:id="rId54" ref="A38"/>
+    <hyperlink r:id="rId55" location="!/hgnc_id/HGNC:4319" ref="E38"/>
+    <hyperlink r:id="rId56" ref="A39"/>
+    <hyperlink r:id="rId57" location="!/hgnc_id/HGNC:4471" ref="E39"/>
+    <hyperlink r:id="rId58" ref="A40"/>
+    <hyperlink r:id="rId59" location="!/hgnc_id/HGNC:24959" ref="E40"/>
     <hyperlink r:id="rId60" ref="A41"/>
-    <hyperlink r:id="rId61" location="!/hgnc_id/HGNC:24959" ref="E41"/>
+    <hyperlink r:id="rId61" location="!/hgnc_id/HGNC:4852" ref="E41"/>
     <hyperlink r:id="rId62" ref="A42"/>
-    <hyperlink r:id="rId63" location="!/hgnc_id/HGNC:4852" ref="E42"/>
+    <hyperlink r:id="rId63" location="!/hgnc_id/HGNC:4853" ref="E42"/>
     <hyperlink r:id="rId64" ref="A43"/>
-    <hyperlink r:id="rId65" location="!/hgnc_id/HGNC:4853" ref="E43"/>
+    <hyperlink r:id="rId65" location="!/hgnc_id/HGNC:5192" ref="E43"/>
     <hyperlink r:id="rId66" ref="A44"/>
-    <hyperlink r:id="rId67" location="!/hgnc_id/HGNC:5192" ref="E44"/>
-    <hyperlink r:id="rId68" ref="A45"/>
-    <hyperlink r:id="rId69" location="!/hgnc_id/HGNC:19764" ref="E45"/>
-    <hyperlink r:id="rId70" ref="C47"/>
-    <hyperlink r:id="rId71" ref="A48"/>
-    <hyperlink r:id="rId72" ref="E48"/>
-    <hyperlink r:id="rId73" ref="G48"/>
-    <hyperlink r:id="rId74" ref="H49"/>
-    <hyperlink r:id="rId75" ref="H50"/>
+    <hyperlink r:id="rId67" location="!/hgnc_id/HGNC:19764" ref="E44"/>
+    <hyperlink r:id="rId68" ref="C46"/>
+    <hyperlink r:id="rId69" ref="A47"/>
+    <hyperlink r:id="rId70" ref="E47"/>
+    <hyperlink r:id="rId71" ref="G47"/>
+    <hyperlink r:id="rId72" ref="H48"/>
+    <hyperlink r:id="rId73" ref="H49"/>
+    <hyperlink r:id="rId74" ref="A50"/>
+    <hyperlink r:id="rId75" location="!/hgnc_id/HGNC:5361" ref="E50"/>
     <hyperlink r:id="rId76" ref="A51"/>
-    <hyperlink r:id="rId77" location="!/hgnc_id/HGNC:5361" ref="E51"/>
+    <hyperlink r:id="rId77" location="!/hgnc_id/HGNC:5363" ref="E51"/>
     <hyperlink r:id="rId78" ref="A52"/>
-    <hyperlink r:id="rId79" location="!/hgnc_id/HGNC:5363" ref="E52"/>
-    <hyperlink r:id="rId80" ref="A53"/>
-    <hyperlink r:id="rId81" location="!/hgnc_id/HGNC:5464" ref="E53"/>
-    <hyperlink r:id="rId82" location="!/hgnc_id/HGNC:5464" ref="F53"/>
-    <hyperlink r:id="rId83" location="!/hgnc_id/HGNC:5464" ref="G53"/>
+    <hyperlink r:id="rId79" location="!/hgnc_id/HGNC:5464" ref="E52"/>
+    <hyperlink r:id="rId80" location="!/hgnc_id/HGNC:5464" ref="F52"/>
+    <hyperlink r:id="rId81" location="!/hgnc_id/HGNC:5464" ref="G52"/>
+    <hyperlink r:id="rId82" ref="A53"/>
+    <hyperlink r:id="rId83" location="!/hgnc_id/HGNC:5473" ref="E53"/>
     <hyperlink r:id="rId84" ref="A54"/>
-    <hyperlink r:id="rId85" location="!/hgnc_id/HGNC:5473" ref="E54"/>
+    <hyperlink r:id="rId85" location="!/hgnc_id/HGNC:16028" ref="E54"/>
     <hyperlink r:id="rId86" ref="A55"/>
-    <hyperlink r:id="rId87" location="!/hgnc_id/HGNC:16028" ref="E55"/>
+    <hyperlink r:id="rId87" location="!/hgnc_id/HGNC:6188" ref="E55"/>
     <hyperlink r:id="rId88" ref="A56"/>
-    <hyperlink r:id="rId89" location="!/hgnc_id/HGNC:6188" ref="E56"/>
-    <hyperlink r:id="rId90" ref="A57"/>
+    <hyperlink r:id="rId89" ref="A57"/>
+    <hyperlink r:id="rId90" location="!/hgnc_id/HGNC:1123" ref="E57"/>
     <hyperlink r:id="rId91" ref="A58"/>
-    <hyperlink r:id="rId92" location="!/hgnc_id/HGNC:1123" ref="E58"/>
+    <hyperlink r:id="rId92" location="!/hgnc_id/HGNC:21205" ref="E58"/>
     <hyperlink r:id="rId93" ref="A59"/>
-    <hyperlink r:id="rId94" location="!/hgnc_id/HGNC:21205" ref="E59"/>
-    <hyperlink r:id="rId95" ref="A60"/>
+    <hyperlink r:id="rId94" ref="A60"/>
+    <hyperlink r:id="rId95" location="!/hgnc_id/HGNC:6783" ref="E60"/>
     <hyperlink r:id="rId96" ref="A61"/>
-    <hyperlink r:id="rId97" location="!/hgnc_id/HGNC:6783" ref="E61"/>
-    <hyperlink r:id="rId98" ref="A62"/>
-    <hyperlink r:id="rId99" ref="A63"/>
-    <hyperlink r:id="rId100" ref="A64"/>
-    <hyperlink r:id="rId101" ref="E64"/>
-    <hyperlink r:id="rId102" ref="H64"/>
+    <hyperlink r:id="rId97" ref="A62"/>
+    <hyperlink r:id="rId98" ref="A63"/>
+    <hyperlink r:id="rId99" ref="E63"/>
+    <hyperlink r:id="rId100" ref="H63"/>
+    <hyperlink r:id="rId101" ref="A64"/>
+    <hyperlink r:id="rId102" location="!/hgnc_id/HGNC:6925" ref="E64"/>
     <hyperlink r:id="rId103" ref="A65"/>
-    <hyperlink r:id="rId104" location="!/hgnc_id/HGNC:6925" ref="E65"/>
-    <hyperlink r:id="rId105" ref="A66"/>
-    <hyperlink r:id="rId106" location="!/hgnc_id/HGNC:7197" ref="E66"/>
-    <hyperlink r:id="rId107" ref="D68"/>
-    <hyperlink r:id="rId108" ref="C69"/>
-    <hyperlink r:id="rId109" ref="A70"/>
-    <hyperlink r:id="rId110" location="!/hgnc_id/HGNC:1181" ref="E70"/>
-    <hyperlink r:id="rId111" ref="D71"/>
-    <hyperlink r:id="rId112" ref="B72"/>
-    <hyperlink r:id="rId113" location="!/hgnc_id/HGNC:7808" ref="E72"/>
-    <hyperlink r:id="rId114" ref="A73"/>
-    <hyperlink r:id="rId115" location="!/hgnc_id/HGNC:7835" ref="E73"/>
-    <hyperlink r:id="rId116" ref="C74"/>
+    <hyperlink r:id="rId104" location="!/hgnc_id/HGNC:7197" ref="E65"/>
+    <hyperlink r:id="rId105" ref="D67"/>
+    <hyperlink r:id="rId106" ref="C68"/>
+    <hyperlink r:id="rId107" ref="A69"/>
+    <hyperlink r:id="rId108" location="!/hgnc_id/HGNC:1181" ref="E69"/>
+    <hyperlink r:id="rId109" ref="D70"/>
+    <hyperlink r:id="rId110" ref="B71"/>
+    <hyperlink r:id="rId111" location="!/hgnc_id/HGNC:7808" ref="E71"/>
+    <hyperlink r:id="rId112" ref="A72"/>
+    <hyperlink r:id="rId113" location="!/hgnc_id/HGNC:7835" ref="E72"/>
+    <hyperlink r:id="rId114" ref="C73"/>
+    <hyperlink r:id="rId115" ref="A75"/>
+    <hyperlink r:id="rId116" location="!/hgnc_id/HGNC:7881" ref="E75"/>
     <hyperlink r:id="rId117" ref="A76"/>
-    <hyperlink r:id="rId118" location="!/hgnc_id/HGNC:7881" ref="E76"/>
+    <hyperlink r:id="rId118" location="!/hgnc_id/HGNC:8023" ref="E76"/>
     <hyperlink r:id="rId119" ref="A77"/>
-    <hyperlink r:id="rId120" location="!/hgnc_id/HGNC:8023" ref="E77"/>
+    <hyperlink r:id="rId120" location="!/hgnc_id/HGNC:16983" ref="E77"/>
     <hyperlink r:id="rId121" ref="A78"/>
-    <hyperlink r:id="rId122" location="!/hgnc_id/HGNC:16983" ref="E78"/>
-    <hyperlink r:id="rId123" ref="A79"/>
-    <hyperlink r:id="rId124" location="!/hgnc_id/HGNC:9398" ref="E79"/>
-    <hyperlink r:id="rId125" ref="D80"/>
-    <hyperlink r:id="rId126" ref="C81"/>
-    <hyperlink r:id="rId127" ref="A82"/>
-    <hyperlink r:id="rId128" ref="C83"/>
-    <hyperlink r:id="rId129" ref="A85"/>
-    <hyperlink r:id="rId130" location="!/hgnc_id/HGNC:8799" ref="E85"/>
-    <hyperlink r:id="rId131" ref="A86"/>
-    <hyperlink r:id="rId132" location="!/hgnc_id/HGNC:8803" ref="E86"/>
-    <hyperlink r:id="rId133" ref="B89"/>
-    <hyperlink r:id="rId134" ref="H89"/>
-    <hyperlink r:id="rId135" ref="A91"/>
-    <hyperlink r:id="rId136" location="!/hgnc_id/HGNC:9086" ref="E91"/>
-    <hyperlink r:id="rId137" ref="C93"/>
-    <hyperlink r:id="rId138" ref="A94"/>
-    <hyperlink r:id="rId139" location="!/hgnc_id/HGNC:9585" ref="E94"/>
-    <hyperlink r:id="rId140" ref="A95"/>
-    <hyperlink r:id="rId141" ref="A96"/>
-    <hyperlink r:id="rId142" location="!/hgnc_id/HGNC:9957" ref="E96"/>
-    <hyperlink r:id="rId143" ref="A97"/>
-    <hyperlink r:id="rId144" ref="E97"/>
-    <hyperlink r:id="rId145" ref="H97"/>
-    <hyperlink r:id="rId146" ref="A99"/>
-    <hyperlink r:id="rId147" location="!/hgnc_id/HGNC:8951" ref="E99"/>
-    <hyperlink r:id="rId148" ref="A100"/>
-    <hyperlink r:id="rId149" location="!/hgnc_id/HGNC:10848" ref="E100"/>
-    <hyperlink r:id="rId150" ref="C101"/>
-    <hyperlink r:id="rId151" ref="A103"/>
-    <hyperlink r:id="rId152" ref="A104"/>
-    <hyperlink r:id="rId153" location="!/hgnc_id/HGNC:11119" ref="E104"/>
-    <hyperlink r:id="rId154" ref="A105"/>
-    <hyperlink r:id="rId155" location="!/hgnc_id/HGNC:11190" ref="E105"/>
-    <hyperlink r:id="rId156" ref="A106"/>
-    <hyperlink r:id="rId157" ref="H106"/>
-    <hyperlink r:id="rId158" ref="A107"/>
-    <hyperlink r:id="rId159" location="!/hgnc_id/HGNC:11998" ref="E107"/>
-    <hyperlink r:id="rId160" ref="B108"/>
+    <hyperlink r:id="rId122" location="!/hgnc_id/HGNC:9398" ref="E78"/>
+    <hyperlink r:id="rId123" ref="D79"/>
+    <hyperlink r:id="rId124" ref="C80"/>
+    <hyperlink r:id="rId125" ref="A81"/>
+    <hyperlink r:id="rId126" ref="C82"/>
+    <hyperlink r:id="rId127" ref="A83"/>
+    <hyperlink r:id="rId128" location="!/hgnc_id/HGNC:8799" ref="E83"/>
+    <hyperlink r:id="rId129" ref="A84"/>
+    <hyperlink r:id="rId130" location="!/hgnc_id/HGNC:8803" ref="E84"/>
+    <hyperlink r:id="rId131" ref="B87"/>
+    <hyperlink r:id="rId132" ref="H87"/>
+    <hyperlink r:id="rId133" ref="A89"/>
+    <hyperlink r:id="rId134" location="!/hgnc_id/HGNC:9086" ref="E89"/>
+    <hyperlink r:id="rId135" ref="C91"/>
+    <hyperlink r:id="rId136" ref="A92"/>
+    <hyperlink r:id="rId137" location="!/hgnc_id/HGNC:9585" ref="E92"/>
+    <hyperlink r:id="rId138" ref="A93"/>
+    <hyperlink r:id="rId139" ref="A94"/>
+    <hyperlink r:id="rId140" location="!/hgnc_id/HGNC:9957" ref="E94"/>
+    <hyperlink r:id="rId141" ref="A95"/>
+    <hyperlink r:id="rId142" ref="E95"/>
+    <hyperlink r:id="rId143" ref="H95"/>
+    <hyperlink r:id="rId144" ref="A97"/>
+    <hyperlink r:id="rId145" location="!/hgnc_id/HGNC:8951" ref="E97"/>
+    <hyperlink r:id="rId146" ref="A98"/>
+    <hyperlink r:id="rId147" location="!/hgnc_id/HGNC:10848" ref="E98"/>
+    <hyperlink r:id="rId148" ref="C99"/>
+    <hyperlink r:id="rId149" ref="A101"/>
+    <hyperlink r:id="rId150" ref="A102"/>
+    <hyperlink r:id="rId151" location="!/hgnc_id/HGNC:11119" ref="E102"/>
+    <hyperlink r:id="rId152" ref="A103"/>
+    <hyperlink r:id="rId153" location="!/hgnc_id/HGNC:11190" ref="E103"/>
+    <hyperlink r:id="rId154" ref="A104"/>
+    <hyperlink r:id="rId155" ref="H104"/>
+    <hyperlink r:id="rId156" ref="A105"/>
+    <hyperlink r:id="rId157" location="!/hgnc_id/HGNC:11998" ref="E105"/>
+    <hyperlink r:id="rId158" ref="B106"/>
+    <hyperlink r:id="rId159" ref="A107"/>
+    <hyperlink r:id="rId160" ref="H107"/>
     <hyperlink r:id="rId161" ref="A109"/>
-    <hyperlink r:id="rId162" ref="H109"/>
-    <hyperlink r:id="rId163" ref="A111"/>
-    <hyperlink r:id="rId164" ref="C113"/>
+    <hyperlink r:id="rId162" ref="C111"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.984027777777778" footer="0.0" header="0.0" left="0.747916666666667" right="0.747916666666667" top="0.984027777777778"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId165"/>
+  <drawing r:id="rId163"/>
 </worksheet>
 </file>
--- a/annotations/Annotations_oligodendrocyte_developement.xlsx
+++ b/annotations/Annotations_oligodendrocyte_developement.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Oligodendrocyte development sub" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Oligodendrocyte development sub'!$A$1:$J$112</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Oligodendrocyte development sub'!$A$1:$J$115</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="477">
   <si>
     <t>UniProt</t>
   </si>
@@ -1374,7 +1374,7 @@
     <t>32914394, 30500113</t>
   </si>
   <si>
-    <t>humna (32914394, 30500113)</t>
+    <t>human (32914394, 30500113)</t>
   </si>
   <si>
     <t>Ligand for VEGR2. induces OPC proliferation</t>
@@ -1417,6 +1417,33 @@
   </si>
   <si>
     <t>Negative and Positive effect on OPC differentiation into premyelinating oligodendrocytes</t>
+  </si>
+  <si>
+    <t>thyroid hormone T3</t>
+  </si>
+  <si>
+    <t>human (33099281)</t>
+  </si>
+  <si>
+    <t>Positive influence in OPC maturation</t>
+  </si>
+  <si>
+    <t>Cholesterol metabolism</t>
+  </si>
+  <si>
+    <t>Positive influence on oligodendrocyte differentiation</t>
+  </si>
+  <si>
+    <t>"Voltage-gated sodium channels", "Voltage-sensitive sodium channels", "Voltage-dependent sodium channels", "VGSCs", "Nav channels"</t>
+  </si>
+  <si>
+    <t>VGSCs</t>
+  </si>
+  <si>
+    <t>10.2903/sp.efsa.2020.EN-1938</t>
+  </si>
+  <si>
+    <t>human (10.2903/sp.efsa.2020.EN-1938)</t>
   </si>
 </sst>
 </file>
@@ -5287,47 +5314,47 @@
       <c r="K108" s="5"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="4" t="s">
+      <c r="A109" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="B109" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D109" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E109" s="4" t="s">
+      <c r="B109" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="F109" s="4" t="s">
+      <c r="F109" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="G109" s="4" t="s">
+      <c r="G109" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="H109" s="4">
+      <c r="H109" s="2">
         <v>1.8593473E7</v>
       </c>
-      <c r="I109" s="4" t="s">
+      <c r="I109" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="J109" s="3"/>
+      <c r="J109" s="2"/>
       <c r="K109" s="5"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D110" s="1" t="s">
+      <c r="A110" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E110" s="2" t="s">
@@ -5342,28 +5369,28 @@
       <c r="H110" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="I110" s="3" t="s">
+      <c r="I110" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="J110" s="3" t="s">
+      <c r="J110" s="2" t="s">
         <v>462</v>
       </c>
       <c r="K110" s="5"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B111" s="1" t="s">
+      <c r="A111" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="D111" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E111" s="1" t="s">
+      <c r="D111" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F111" s="2" t="s">
@@ -5375,84 +5402,144 @@
       <c r="H111" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="I111" s="3" t="s">
+      <c r="I111" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="J111" s="3" t="s">
+      <c r="J111" s="2" t="s">
         <v>462</v>
       </c>
       <c r="K111" s="5"/>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F112" s="1" t="s">
+      <c r="A112" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F112" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="H112" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J112" s="4" t="s">
+      <c r="H112" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J112" s="2" t="s">
         <v>467</v>
       </c>
       <c r="K112" s="7"/>
     </row>
     <row r="113">
-      <c r="A113" s="8"/>
-      <c r="B113" s="8"/>
-      <c r="C113" s="8"/>
-      <c r="D113" s="8"/>
-      <c r="E113" s="8"/>
-      <c r="F113" s="8"/>
-      <c r="G113" s="8"/>
-      <c r="H113" s="8"/>
-      <c r="I113" s="8"/>
-      <c r="J113" s="8"/>
+      <c r="A113" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="H113" s="2">
+        <v>3.3099281E7</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="J113" s="2" t="s">
+        <v>470</v>
+      </c>
       <c r="K113" s="7"/>
     </row>
     <row r="114">
-      <c r="A114" s="8"/>
-      <c r="B114" s="8"/>
-      <c r="C114" s="8"/>
-      <c r="D114" s="8"/>
-      <c r="E114" s="8"/>
-      <c r="F114" s="8"/>
-      <c r="G114" s="8"/>
-      <c r="H114" s="8"/>
-      <c r="I114" s="8"/>
-      <c r="J114" s="8"/>
+      <c r="A114" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="H114" s="2">
+        <v>3.3099281E7</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>472</v>
+      </c>
       <c r="K114" s="7"/>
     </row>
     <row r="115">
-      <c r="A115" s="8"/>
-      <c r="B115" s="8"/>
-      <c r="C115" s="8"/>
-      <c r="D115" s="8"/>
-      <c r="E115" s="8"/>
-      <c r="F115" s="8"/>
-      <c r="G115" s="8"/>
-      <c r="H115" s="8"/>
-      <c r="I115" s="8"/>
-      <c r="J115" s="8"/>
+      <c r="A115" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="J115" s="2" t="s">
+        <v>472</v>
+      </c>
       <c r="K115" s="7"/>
     </row>
     <row r="116">
@@ -16298,12 +16385,7 @@
       <c r="K949" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$J$112">
-    <sortState ref="A1:J112">
-      <sortCondition ref="G1:G112"/>
-      <sortCondition ref="H1:H112"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="$A$1:$J$115"/>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="A2"/>
     <hyperlink r:id="rId2" ref="A3"/>
@@ -16467,10 +16549,11 @@
     <hyperlink r:id="rId160" ref="H107"/>
     <hyperlink r:id="rId161" ref="A109"/>
     <hyperlink r:id="rId162" ref="C111"/>
+    <hyperlink r:id="rId163" ref="H115"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.984027777777778" footer="0.0" header="0.0" left="0.747916666666667" right="0.747916666666667" top="0.984027777777778"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId163"/>
+  <drawing r:id="rId164"/>
 </worksheet>
 </file>